--- a/anda/互联网大楼中间过道.xlsx
+++ b/anda/互联网大楼中间过道.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>name</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -473,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\16F</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -484,6 +489,11 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>16F109北门</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>lock-hlw-37</t>
         </is>
       </c>
     </row>
@@ -500,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\16F</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,6 +521,11 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>16F109南门</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>lock-hlw-38</t>
         </is>
       </c>
     </row>
@@ -527,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\16F</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -538,6 +553,11 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>16F108南门</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>lock-hlw-39</t>
         </is>
       </c>
     </row>
@@ -554,7 +574,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\16F</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -565,6 +585,11 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>16F108北门</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>lock-hlw-40</t>
         </is>
       </c>
     </row>
@@ -581,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\14F</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -592,6 +617,11 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>14F108南门</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>lock-hlw-88</t>
         </is>
       </c>
     </row>
@@ -608,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\14F</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -619,6 +649,11 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>14F108北门</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>lock-hlw-89</t>
         </is>
       </c>
     </row>
@@ -635,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\14F</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -646,6 +681,11 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>14F109北门</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>lock-hlw-90</t>
         </is>
       </c>
     </row>
@@ -662,7 +702,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\14F</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -673,6 +713,11 @@
       <c r="E9" t="inlineStr">
         <is>
           <t>14F109南门</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>lock-hlw-91</t>
         </is>
       </c>
     </row>
@@ -689,7 +734,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\14F</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -700,6 +745,11 @@
       <c r="E10" t="inlineStr">
         <is>
           <t>14F110北门</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>lock-hlw-92</t>
         </is>
       </c>
     </row>
@@ -716,7 +766,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\14F</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -727,6 +777,11 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>14F110南门</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>lock-hlw-93</t>
         </is>
       </c>
     </row>
@@ -743,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\14F</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -754,6 +809,11 @@
       <c r="E12" t="inlineStr">
         <is>
           <t>14F111南门</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>lock-hlw-94</t>
         </is>
       </c>
     </row>
@@ -770,7 +830,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\14F</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -781,6 +841,11 @@
       <c r="E13" t="inlineStr">
         <is>
           <t>14F111北门</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>lock-hlw-95</t>
         </is>
       </c>
     </row>
@@ -797,7 +862,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\13F</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -808,6 +873,11 @@
       <c r="E14" t="inlineStr">
         <is>
           <t>13F108北门</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>lock-hlw-132</t>
         </is>
       </c>
     </row>
@@ -824,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\13F</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -835,6 +905,11 @@
       <c r="E15" t="inlineStr">
         <is>
           <t>13F108南门</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>lock-hlw-133</t>
         </is>
       </c>
     </row>
@@ -851,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\13F</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -862,6 +937,11 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>13F109南门</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>lock-hlw-134</t>
         </is>
       </c>
     </row>
@@ -878,7 +958,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\13F</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -889,6 +969,11 @@
       <c r="E17" t="inlineStr">
         <is>
           <t>13F109北门</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>lock-hlw-135</t>
         </is>
       </c>
     </row>
@@ -905,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\13F</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -916,6 +1001,11 @@
       <c r="E18" t="inlineStr">
         <is>
           <t>13F110南门</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>lock-hlw-136</t>
         </is>
       </c>
     </row>
@@ -932,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\13F</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -943,6 +1033,11 @@
       <c r="E19" t="inlineStr">
         <is>
           <t>13F110北门</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>lock-hlw-137</t>
         </is>
       </c>
     </row>
@@ -959,7 +1054,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\13F</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -970,6 +1065,11 @@
       <c r="E20" t="inlineStr">
         <is>
           <t>13F111南门</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>lock-hlw-138</t>
         </is>
       </c>
     </row>
@@ -986,7 +1086,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\13F</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -997,6 +1097,11 @@
       <c r="E21" t="inlineStr">
         <is>
           <t>13F111北门</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>lock-hlw-139</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1118,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\12F</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1024,6 +1129,11 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>12F106北门</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>lock-hlw-173</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1150,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\12F</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1051,6 +1161,11 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>12F106南门</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>lock-hlw-174</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1182,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\12F</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1078,6 +1193,11 @@
       <c r="E24" t="inlineStr">
         <is>
           <t>12F107北门</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>lock-hlw-175</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1214,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\12F</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1105,6 +1225,11 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>12F107南门</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>lock-hlw-176</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1246,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\11F</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1132,6 +1257,11 @@
       <c r="E26" t="inlineStr">
         <is>
           <t>11F106北门</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>lock-hlw-191</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\11F</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1159,6 +1289,11 @@
       <c r="E27" t="inlineStr">
         <is>
           <t>11F106南门</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>lock-hlw-192</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1310,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\11F</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1186,6 +1321,11 @@
       <c r="E28" t="inlineStr">
         <is>
           <t>11F107北门</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>lock-hlw-193</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1342,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\11F</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1213,6 +1353,11 @@
       <c r="E29" t="inlineStr">
         <is>
           <t>11F107南门</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>lock-hlw-194</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1374,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\10F</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1240,6 +1385,11 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>10F106南门</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>lock-hlw-209</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1406,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\10F</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1267,6 +1417,11 @@
       <c r="E31" t="inlineStr">
         <is>
           <t>10F106北门</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>lock-hlw-210</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1438,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\10F</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1294,6 +1449,11 @@
       <c r="E32" t="inlineStr">
         <is>
           <t>10F107北门</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>lock-hlw-211</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1470,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\10F</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1321,6 +1481,11 @@
       <c r="E33" t="inlineStr">
         <is>
           <t>10F107南门</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>lock-hlw-212</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1502,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\9F</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1348,6 +1513,11 @@
       <c r="E34" t="inlineStr">
         <is>
           <t>9F106南门</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>lock-hlw-227</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1534,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\9F</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1375,6 +1545,11 @@
       <c r="E35" t="inlineStr">
         <is>
           <t>9F106北门</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>lock-hlw-228</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1566,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\9F</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1402,6 +1577,11 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>9F107南门</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>lock-hlw-229</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1598,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\9F</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1429,6 +1609,11 @@
       <c r="E37" t="inlineStr">
         <is>
           <t>9F107北门</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>lock-hlw-230</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1630,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\8F</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1456,6 +1641,11 @@
       <c r="E38" t="inlineStr">
         <is>
           <t>8F107北门</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>lock-hlw-247</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1662,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\8F</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1483,6 +1673,11 @@
       <c r="E39" t="inlineStr">
         <is>
           <t>8F107南门</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>lock-hlw-248</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1694,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\8F</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1510,6 +1705,11 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>8F108北门</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>lock-hlw-249</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1726,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\8F</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1537,6 +1737,11 @@
       <c r="E41" t="inlineStr">
         <is>
           <t>8F108南门</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>lock-hlw-250</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1758,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\8F</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1564,6 +1769,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>8F109南门</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>lock-hlw-251</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1790,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\8F</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1591,6 +1801,11 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>8F109北门</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>lock-hlw-252</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1822,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\8F</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1618,6 +1833,11 @@
       <c r="E44" t="inlineStr">
         <is>
           <t>8F110北门</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>lock-hlw-253</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1854,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\8F</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1645,6 +1865,11 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>8F110南门</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>lock-hlw-254</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1886,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\7F</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1672,6 +1897,11 @@
       <c r="E46" t="inlineStr">
         <is>
           <t>7F107北门</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>lock-hlw-275</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1918,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\7F</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1699,6 +1929,11 @@
       <c r="E47" t="inlineStr">
         <is>
           <t>7F107南门</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>lock-hlw-276</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1950,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\7F</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1726,6 +1961,11 @@
       <c r="E48" t="inlineStr">
         <is>
           <t>7F108北门</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>lock-hlw-277</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1982,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\7F</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1753,6 +1993,11 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>7F108南门</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>lock-hlw-278</t>
         </is>
       </c>
     </row>
@@ -1769,7 +2014,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\6F</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1780,6 +2025,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>6F105南门</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>lock-hlw-308</t>
         </is>
       </c>
     </row>
@@ -1796,7 +2046,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\6F</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1807,6 +2057,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>6F105北门</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>lock-hlw-309</t>
         </is>
       </c>
     </row>
@@ -1823,7 +2078,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\6F</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1834,6 +2089,11 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>6F106南门</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>lock-hlw-310</t>
         </is>
       </c>
     </row>
@@ -1850,7 +2110,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\6F</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1861,6 +2121,11 @@
       <c r="E53" t="inlineStr">
         <is>
           <t>6F106北门</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>lock-hlw-311</t>
         </is>
       </c>
     </row>
@@ -1877,7 +2142,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\5F</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1888,6 +2153,11 @@
       <c r="E54" t="inlineStr">
         <is>
           <t>5F107北门</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>lock-hlw-334</t>
         </is>
       </c>
     </row>
@@ -1904,7 +2174,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\5F</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1915,6 +2185,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>5F107南门</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>lock-hlw-335</t>
         </is>
       </c>
     </row>
@@ -1931,7 +2206,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\5F</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1942,6 +2217,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>5F108北门</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>lock-hlw-336</t>
         </is>
       </c>
     </row>
@@ -1958,7 +2238,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\5F</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1969,6 +2249,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>5F108南门</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>lock-hlw-337</t>
         </is>
       </c>
     </row>
@@ -1985,7 +2270,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\5F</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1996,6 +2281,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>5F109南门</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>lock-hlw-338</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2302,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\5F</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2023,6 +2313,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>5F109北门</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>lock-hlw-339</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2334,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\5F</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2050,6 +2345,11 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>5F110北门</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>lock-hlw-340</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2366,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\5F</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2077,6 +2377,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>5F110南门</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>lock-hlw-341</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2398,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\4F</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2104,6 +2409,11 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>4F107南门</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>lock-hlw-362</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2430,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\4F</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2131,6 +2441,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>4F107北门</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>lock-hlw-363</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2462,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\4F</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2158,6 +2473,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>4F108南门</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>lock-hlw-364</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2494,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\4F</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2185,6 +2505,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>4F108北门</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>lock-hlw-365</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2526,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\4F</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2212,6 +2537,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>4F109南门</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>lock-hlw-366</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2558,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\4F</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2239,6 +2569,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>4F109北门</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>lock-hlw-367</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2590,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\4F</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2266,6 +2601,11 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>4F110北门</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>lock-hlw-368</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2622,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\4F</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2293,6 +2633,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>4F110南门</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>lock-hlw-369</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2654,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\3F</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2320,6 +2665,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>3F107北门</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>lock-hlw-390</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2686,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\3F</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2347,6 +2697,11 @@
       <c r="E71" t="inlineStr">
         <is>
           <t>3F107南门</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>lock-hlw-391</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2718,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\3F</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2374,6 +2729,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>3F108北门</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>lock-hlw-392</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2750,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\3F</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2401,6 +2761,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>3F108南门</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>lock-hlw-393</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2782,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\3F</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2428,6 +2793,11 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>3F109南门</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>lock-hlw-394</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2814,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\3F</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2455,6 +2825,11 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>3F109北门</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>lock-hlw-395</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2846,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\3F</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2482,6 +2857,11 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>3F110南门</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>lock-hlw-396</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2878,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\3F</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2509,6 +2889,11 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>3F110北门</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>lock-hlw-397</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2910,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\2F</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2536,6 +2921,11 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>2F107南门</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>lock-hlw-417</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2942,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\2F</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2563,6 +2953,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>2F107北门</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>lock-hlw-418</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2974,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\2F</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2590,6 +2985,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>2F108南门</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>lock-hlw-419</t>
         </is>
       </c>
     </row>
@@ -2606,7 +3006,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼中间过道</t>
+          <t>安徽大学\龙河校区\互联网大楼\中间过道\2F</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2617,6 +3017,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>2F108北门</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>lock-hlw-420</t>
         </is>
       </c>
     </row>
